--- a/Buyer hub/Reports/Manual testcases/Invoice variance testcases.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Invoice variance testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159ED46D-3855-4E0D-A51D-31679C68BAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B729B4-9A4F-4EB8-A8D5-310FE4CA9C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>SL. No</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Invoices variance-&gt;Search Invoices</t>
   </si>
   <si>
-    <t>Once Type Invoices and select invoices and  I will shows Inv.date, Supplier, Outlet, Invoice, Amount, Order, Amount Variance and Var%</t>
-  </si>
-  <si>
     <t xml:space="preserve">As per expected if we click the Invoices Variance,it get displayed the Invoices details </t>
   </si>
   <si>
@@ -275,6 +272,64 @@
         <scheme val="minor"/>
       </rPr>
       <t>Search Invoice, Calendar picker,All outlets dropdown, Filter and Export</t>
+    </r>
+  </si>
+  <si>
+    <t>Invoices variance-&gt;GRN match(new)</t>
+  </si>
+  <si>
+    <t>It gets displayed the GRN linked to the PO In terms of line items and quantity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">here one new column is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GRN match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, there is any GRN linked to the PO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once Type Invoices and select invoices and  It will shows Inv.date, Supplier,  Invoice, Amount, Order, Amount Variance, Var% and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GRN match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
     </r>
   </si>
 </sst>
@@ -705,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -775,13 +830,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -798,16 +853,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>11</v>
@@ -821,10 +876,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -844,10 +899,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -867,13 +922,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
@@ -890,16 +945,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>11</v>
@@ -913,16 +968,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -936,18 +991,41 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
     </row>
